--- a/data/pca/factorExposure/factorExposure_2015-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.02520820495372948</v>
+        <v>0.01806103986897196</v>
       </c>
       <c r="C2">
-        <v>-0.03325602265173002</v>
+        <v>0.0481195526779901</v>
       </c>
       <c r="D2">
-        <v>-0.131334666147943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1395703709377643</v>
+      </c>
+      <c r="E2">
+        <v>0.003341080753526279</v>
+      </c>
+      <c r="F2">
+        <v>-0.003935291368259985</v>
+      </c>
+      <c r="G2">
+        <v>-0.1184162863118198</v>
+      </c>
+      <c r="H2">
+        <v>0.02641822477314756</v>
+      </c>
+      <c r="I2">
+        <v>0.05954417208648507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01229895335777421</v>
+        <v>-0.01485259592696037</v>
       </c>
       <c r="C3">
-        <v>-0.04989941927105384</v>
+        <v>0.03327038558812698</v>
       </c>
       <c r="D3">
-        <v>-0.06236947795021692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04349674084386385</v>
+      </c>
+      <c r="E3">
+        <v>0.04410794797671776</v>
+      </c>
+      <c r="F3">
+        <v>0.01197559677108356</v>
+      </c>
+      <c r="G3">
+        <v>-0.1241055829340069</v>
+      </c>
+      <c r="H3">
+        <v>0.01844579016906088</v>
+      </c>
+      <c r="I3">
+        <v>-0.06850512528398173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.03776765920359211</v>
+        <v>0.02902314457953058</v>
       </c>
       <c r="C4">
-        <v>-0.07065431521842329</v>
+        <v>0.08786188234010996</v>
       </c>
       <c r="D4">
-        <v>-0.142444338681201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1533082287994845</v>
+      </c>
+      <c r="E4">
+        <v>0.02293222739991947</v>
+      </c>
+      <c r="F4">
+        <v>0.08342434014963189</v>
+      </c>
+      <c r="G4">
+        <v>0.003986503732297976</v>
+      </c>
+      <c r="H4">
+        <v>0.04064992228443994</v>
+      </c>
+      <c r="I4">
+        <v>-0.01459219026482835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02622068956539054</v>
+        <v>0.02540439124828514</v>
       </c>
       <c r="C6">
-        <v>-0.01995720140786399</v>
+        <v>0.03301967550682044</v>
       </c>
       <c r="D6">
-        <v>-0.1567096382062103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1374798611620652</v>
+      </c>
+      <c r="E6">
+        <v>-0.0298215285300223</v>
+      </c>
+      <c r="F6">
+        <v>0.05635169544732783</v>
+      </c>
+      <c r="G6">
+        <v>-0.05577734653475162</v>
+      </c>
+      <c r="H6">
+        <v>0.01408407910262532</v>
+      </c>
+      <c r="I6">
+        <v>-0.0257315603524075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.01399984760927236</v>
+        <v>0.009229916100557451</v>
       </c>
       <c r="C7">
-        <v>-0.02933888580679168</v>
+        <v>0.03759608488163225</v>
       </c>
       <c r="D7">
-        <v>-0.1186308630363666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09700127219561583</v>
+      </c>
+      <c r="E7">
+        <v>-0.03939971253063006</v>
+      </c>
+      <c r="F7">
+        <v>0.01067768613084337</v>
+      </c>
+      <c r="G7">
+        <v>-0.05265299974431394</v>
+      </c>
+      <c r="H7">
+        <v>0.04168835125002796</v>
+      </c>
+      <c r="I7">
+        <v>-0.05530551589067211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004977635604691515</v>
+        <v>-0.001988636867775088</v>
       </c>
       <c r="C8">
-        <v>-0.03450816471951703</v>
+        <v>0.03962213860737684</v>
       </c>
       <c r="D8">
-        <v>-0.0825035893750676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08106115896573213</v>
+      </c>
+      <c r="E8">
+        <v>-0.01076234060003697</v>
+      </c>
+      <c r="F8">
+        <v>0.04834757489876338</v>
+      </c>
+      <c r="G8">
+        <v>-0.08497920229338338</v>
+      </c>
+      <c r="H8">
+        <v>-0.03050497155854791</v>
+      </c>
+      <c r="I8">
+        <v>-0.02539153023516208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03095625288039845</v>
+        <v>0.02172897151283647</v>
       </c>
       <c r="C9">
-        <v>-0.06531398578646068</v>
+        <v>0.07795137835597678</v>
       </c>
       <c r="D9">
-        <v>-0.1330521383013357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1281029278073954</v>
+      </c>
+      <c r="E9">
+        <v>0.0126623965857425</v>
+      </c>
+      <c r="F9">
+        <v>0.05016871743216612</v>
+      </c>
+      <c r="G9">
+        <v>0.004344034434420702</v>
+      </c>
+      <c r="H9">
+        <v>0.04229427208755144</v>
+      </c>
+      <c r="I9">
+        <v>-0.01888794960400613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1544741700539213</v>
+        <v>0.2067223762997805</v>
       </c>
       <c r="C10">
-        <v>0.1679044365914435</v>
+        <v>-0.1344911353880759</v>
       </c>
       <c r="D10">
-        <v>-0.009319531890561063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0112851808582184</v>
+      </c>
+      <c r="E10">
+        <v>0.0272202434752676</v>
+      </c>
+      <c r="F10">
+        <v>0.05060615298354972</v>
+      </c>
+      <c r="G10">
+        <v>0.01551214404597206</v>
+      </c>
+      <c r="H10">
+        <v>-0.06278701534108261</v>
+      </c>
+      <c r="I10">
+        <v>-0.07397913897806374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02568313415666305</v>
+        <v>0.01705731764622983</v>
       </c>
       <c r="C11">
-        <v>-0.0463382667681524</v>
+        <v>0.05456333521455615</v>
       </c>
       <c r="D11">
-        <v>-0.05996170788630281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05110930386513856</v>
+      </c>
+      <c r="E11">
+        <v>-0.01989978124600412</v>
+      </c>
+      <c r="F11">
+        <v>-0.01472214928335464</v>
+      </c>
+      <c r="G11">
+        <v>-0.02430745728276757</v>
+      </c>
+      <c r="H11">
+        <v>0.04006668344583448</v>
+      </c>
+      <c r="I11">
+        <v>-0.009477087234857207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02677560609816452</v>
+        <v>0.01747813175390456</v>
       </c>
       <c r="C12">
-        <v>-0.04401093392327173</v>
+        <v>0.05114503540990566</v>
       </c>
       <c r="D12">
-        <v>-0.06915483517364315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05169688444526131</v>
+      </c>
+      <c r="E12">
+        <v>-0.01530121373597106</v>
+      </c>
+      <c r="F12">
+        <v>-0.01778039624393658</v>
+      </c>
+      <c r="G12">
+        <v>-0.02350623745463768</v>
+      </c>
+      <c r="H12">
+        <v>0.06478083408380926</v>
+      </c>
+      <c r="I12">
+        <v>-0.023236706346221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.004618145768391415</v>
+        <v>0.005937263315828834</v>
       </c>
       <c r="C13">
-        <v>-0.03226142129203893</v>
+        <v>0.04492720117385328</v>
       </c>
       <c r="D13">
-        <v>-0.1568275916442726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1600360759519111</v>
+      </c>
+      <c r="E13">
+        <v>-0.03742949217637052</v>
+      </c>
+      <c r="F13">
+        <v>0.04125320028817042</v>
+      </c>
+      <c r="G13">
+        <v>-0.06252320310667162</v>
+      </c>
+      <c r="H13">
+        <v>0.02974194177811142</v>
+      </c>
+      <c r="I13">
+        <v>-0.07268290006961747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0004872105568870211</v>
+        <v>0.001260236415931391</v>
       </c>
       <c r="C14">
-        <v>-0.02609652009154631</v>
+        <v>0.03034948282861332</v>
       </c>
       <c r="D14">
-        <v>-0.1135848936324471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1070434860515487</v>
+      </c>
+      <c r="E14">
+        <v>-0.01768674463185638</v>
+      </c>
+      <c r="F14">
+        <v>0.01457822381461033</v>
+      </c>
+      <c r="G14">
+        <v>-0.07948876383841835</v>
+      </c>
+      <c r="H14">
+        <v>0.08124764682086001</v>
+      </c>
+      <c r="I14">
+        <v>-0.0230464047568558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.004356248250642684</v>
+        <v>-0.0003670850363034407</v>
       </c>
       <c r="C15">
-        <v>-0.006195072861982306</v>
+        <v>0.01637108377786707</v>
       </c>
       <c r="D15">
-        <v>-0.0151177989271349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04379387241472876</v>
+      </c>
+      <c r="E15">
+        <v>-0.002721471791789354</v>
+      </c>
+      <c r="F15">
+        <v>0.001561148663818286</v>
+      </c>
+      <c r="G15">
+        <v>-0.02100056402872627</v>
+      </c>
+      <c r="H15">
+        <v>0.005757725316471376</v>
+      </c>
+      <c r="I15">
+        <v>0.01877189279495324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02582280310943048</v>
+        <v>0.01851406411310313</v>
       </c>
       <c r="C16">
-        <v>-0.0438061911140511</v>
+        <v>0.05118225905732876</v>
       </c>
       <c r="D16">
-        <v>-0.07023179912686486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05430457141827446</v>
+      </c>
+      <c r="E16">
+        <v>-0.01904360066219042</v>
+      </c>
+      <c r="F16">
+        <v>-0.01000043819140167</v>
+      </c>
+      <c r="G16">
+        <v>-0.02366206320186658</v>
+      </c>
+      <c r="H16">
+        <v>0.05326491674551646</v>
+      </c>
+      <c r="I16">
+        <v>-0.01207438861881321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006562527574547375</v>
+        <v>0.002278084921890074</v>
       </c>
       <c r="C19">
-        <v>-0.02743502030709416</v>
+        <v>0.02417072816350748</v>
       </c>
       <c r="D19">
-        <v>-0.1594232405449444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1089484863934261</v>
+      </c>
+      <c r="E19">
+        <v>0.02203004298218791</v>
+      </c>
+      <c r="F19">
+        <v>0.006571932629865274</v>
+      </c>
+      <c r="G19">
+        <v>-0.04748779443366818</v>
+      </c>
+      <c r="H19">
+        <v>0.05746960782319148</v>
+      </c>
+      <c r="I19">
+        <v>-0.03718939683451015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.008873870765739887</v>
+        <v>0.007893810065610424</v>
       </c>
       <c r="C20">
-        <v>-0.03318097104333703</v>
+        <v>0.03994478001350999</v>
       </c>
       <c r="D20">
-        <v>-0.1039316045649201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1052039889654043</v>
+      </c>
+      <c r="E20">
+        <v>0.005249658958982902</v>
+      </c>
+      <c r="F20">
+        <v>0.02802462618953941</v>
+      </c>
+      <c r="G20">
+        <v>-0.04911069465299335</v>
+      </c>
+      <c r="H20">
+        <v>0.04870388137874722</v>
+      </c>
+      <c r="I20">
+        <v>-0.02863130143264286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008175205064935673</v>
+        <v>0.004079447570502381</v>
       </c>
       <c r="C21">
-        <v>-0.03936745320436419</v>
+        <v>0.04659248209979797</v>
       </c>
       <c r="D21">
-        <v>-0.1836634606955656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1565018509647288</v>
+      </c>
+      <c r="E21">
+        <v>0.01859264451237894</v>
+      </c>
+      <c r="F21">
+        <v>0.05979470512936424</v>
+      </c>
+      <c r="G21">
+        <v>-0.08980353979428843</v>
+      </c>
+      <c r="H21">
+        <v>0.1104913809764184</v>
+      </c>
+      <c r="I21">
+        <v>-0.08849355647428664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00158416796626213</v>
+        <v>-0.002154721994951496</v>
       </c>
       <c r="C22">
-        <v>-0.05338332679252848</v>
+        <v>0.06388896738534641</v>
       </c>
       <c r="D22">
-        <v>-0.1655953514464618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2217955302031129</v>
+      </c>
+      <c r="E22">
+        <v>-0.04351863028107717</v>
+      </c>
+      <c r="F22">
+        <v>0.03564746506615522</v>
+      </c>
+      <c r="G22">
+        <v>-0.04662430355326352</v>
+      </c>
+      <c r="H22">
+        <v>-0.4624222980474531</v>
+      </c>
+      <c r="I22">
+        <v>0.3115235878234138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.001411866171496891</v>
+        <v>-0.001655190416666589</v>
       </c>
       <c r="C23">
-        <v>-0.05377489046885184</v>
+        <v>0.06445116291343668</v>
       </c>
       <c r="D23">
-        <v>-0.1651467261017331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2223086502946532</v>
+      </c>
+      <c r="E23">
+        <v>-0.04082286498452756</v>
+      </c>
+      <c r="F23">
+        <v>0.03456707056790571</v>
+      </c>
+      <c r="G23">
+        <v>-0.04520201970384732</v>
+      </c>
+      <c r="H23">
+        <v>-0.4624641232923754</v>
+      </c>
+      <c r="I23">
+        <v>0.3124497165820563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03032912863407845</v>
+        <v>0.01808346261807979</v>
       </c>
       <c r="C24">
-        <v>-0.06026732532770813</v>
+        <v>0.06554452125887787</v>
       </c>
       <c r="D24">
-        <v>-0.0725302254451374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05592699886812987</v>
+      </c>
+      <c r="E24">
+        <v>-0.01864786023837645</v>
+      </c>
+      <c r="F24">
+        <v>-0.006740094331417291</v>
+      </c>
+      <c r="G24">
+        <v>-0.03400669856214997</v>
+      </c>
+      <c r="H24">
+        <v>0.06455694524945912</v>
+      </c>
+      <c r="I24">
+        <v>-0.01173649021480328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03461201521717377</v>
+        <v>0.02299300059287351</v>
       </c>
       <c r="C25">
-        <v>-0.05197072730220729</v>
+        <v>0.0614217482033665</v>
       </c>
       <c r="D25">
-        <v>-0.07180449474336083</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0585034647582169</v>
+      </c>
+      <c r="E25">
+        <v>-0.008435995015055389</v>
+      </c>
+      <c r="F25">
+        <v>-0.009975369048818303</v>
+      </c>
+      <c r="G25">
+        <v>-0.01634980270354882</v>
+      </c>
+      <c r="H25">
+        <v>0.0409928883844086</v>
+      </c>
+      <c r="I25">
+        <v>-0.01565908249050172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.008987505476376306</v>
+        <v>0.007383503991679564</v>
       </c>
       <c r="C26">
-        <v>-0.01385191929872448</v>
+        <v>0.02323107887296576</v>
       </c>
       <c r="D26">
-        <v>-0.07862863926533649</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07164084224352189</v>
+      </c>
+      <c r="E26">
+        <v>-0.01180979038319505</v>
+      </c>
+      <c r="F26">
+        <v>0.02289439537527682</v>
+      </c>
+      <c r="G26">
+        <v>-0.04661395081171364</v>
+      </c>
+      <c r="H26">
+        <v>0.05595562706008592</v>
+      </c>
+      <c r="I26">
+        <v>-0.03474465180403121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2313363180923338</v>
+        <v>0.2950166360991056</v>
       </c>
       <c r="C28">
-        <v>0.2204029854201275</v>
+        <v>-0.1647015854332896</v>
       </c>
       <c r="D28">
-        <v>-0.006309335440034652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001636057061376881</v>
+      </c>
+      <c r="E28">
+        <v>0.04516933803438142</v>
+      </c>
+      <c r="F28">
+        <v>0.04366726540216229</v>
+      </c>
+      <c r="G28">
+        <v>0.04355505769586517</v>
+      </c>
+      <c r="H28">
+        <v>-0.04048419589031994</v>
+      </c>
+      <c r="I28">
+        <v>-0.05589634387297439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0002997388453236501</v>
+        <v>0.001152411954412938</v>
       </c>
       <c r="C29">
-        <v>-0.02367419878849296</v>
+        <v>0.02900893685855108</v>
       </c>
       <c r="D29">
-        <v>-0.1061342400823317</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.105565740226952</v>
+      </c>
+      <c r="E29">
+        <v>-0.03158044285232745</v>
+      </c>
+      <c r="F29">
+        <v>0.02715891691057648</v>
+      </c>
+      <c r="G29">
+        <v>-0.06656109632311383</v>
+      </c>
+      <c r="H29">
+        <v>0.08019305317326554</v>
+      </c>
+      <c r="I29">
+        <v>-0.03805182686451707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.0208204543014472</v>
+        <v>0.01799945172181185</v>
       </c>
       <c r="C30">
-        <v>-0.06512057088939964</v>
+        <v>0.08043126625007781</v>
       </c>
       <c r="D30">
-        <v>-0.1719625077720315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1682341697940009</v>
+      </c>
+      <c r="E30">
+        <v>-0.03235264144228654</v>
+      </c>
+      <c r="F30">
+        <v>0.03706416368509122</v>
+      </c>
+      <c r="G30">
+        <v>-0.04807837405020895</v>
+      </c>
+      <c r="H30">
+        <v>0.02946698042632338</v>
+      </c>
+      <c r="I30">
+        <v>0.03456353456328172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04248230514242957</v>
+        <v>0.0233831079300636</v>
       </c>
       <c r="C31">
-        <v>-0.08183539258803528</v>
+        <v>0.08752648212561574</v>
       </c>
       <c r="D31">
-        <v>-0.0756398582257585</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0492417842685962</v>
+      </c>
+      <c r="E31">
+        <v>-0.004699438810959097</v>
+      </c>
+      <c r="F31">
+        <v>0.02227226306870085</v>
+      </c>
+      <c r="G31">
+        <v>-0.02347633721533383</v>
+      </c>
+      <c r="H31">
+        <v>0.01733269185010391</v>
+      </c>
+      <c r="I31">
+        <v>-0.06941632834037635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0315163667701515</v>
+        <v>0.02450851778328965</v>
       </c>
       <c r="C32">
-        <v>-0.03691185256285425</v>
+        <v>0.04478891509538056</v>
       </c>
       <c r="D32">
-        <v>-0.1239282199677836</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1250428254320836</v>
+      </c>
+      <c r="E32">
+        <v>-0.0004282720304056743</v>
+      </c>
+      <c r="F32">
+        <v>0.03910505320204252</v>
+      </c>
+      <c r="G32">
+        <v>-0.04741288590590911</v>
+      </c>
+      <c r="H32">
+        <v>0.02413954919674411</v>
+      </c>
+      <c r="I32">
+        <v>-0.05444568988592455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01903858326420515</v>
+        <v>0.01555367288384204</v>
       </c>
       <c r="C33">
-        <v>-0.04385901843623685</v>
+        <v>0.05482183072202866</v>
       </c>
       <c r="D33">
-        <v>-0.1587722650542553</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.138416986862907</v>
+      </c>
+      <c r="E33">
+        <v>-0.009264254260740764</v>
+      </c>
+      <c r="F33">
+        <v>0.02233273511858406</v>
+      </c>
+      <c r="G33">
+        <v>-0.03646771703736045</v>
+      </c>
+      <c r="H33">
+        <v>0.0448072464240371</v>
+      </c>
+      <c r="I33">
+        <v>-0.02126085071936207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02918825747981791</v>
+        <v>0.0168268381511954</v>
       </c>
       <c r="C34">
-        <v>-0.06176649959732184</v>
+        <v>0.06525943524273851</v>
       </c>
       <c r="D34">
-        <v>-0.06055659264626376</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04005694634402102</v>
+      </c>
+      <c r="E34">
+        <v>-0.0304186214472552</v>
+      </c>
+      <c r="F34">
+        <v>-0.03649497826214586</v>
+      </c>
+      <c r="G34">
+        <v>-0.02597167392896867</v>
+      </c>
+      <c r="H34">
+        <v>0.04702485319582298</v>
+      </c>
+      <c r="I34">
+        <v>-0.03255334869034604</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001263913709401379</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.00309987303909147</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01267613056012727</v>
+      </c>
+      <c r="E35">
+        <v>-0.00200775289468399</v>
+      </c>
+      <c r="F35">
+        <v>-0.001640021913620799</v>
+      </c>
+      <c r="G35">
+        <v>-0.001425041038773153</v>
+      </c>
+      <c r="H35">
+        <v>0.005651225564981412</v>
+      </c>
+      <c r="I35">
+        <v>0.0005939842012600043</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01455498546706089</v>
+        <v>0.01416294508569824</v>
       </c>
       <c r="C36">
-        <v>-0.00615789729980419</v>
+        <v>0.01855691295325823</v>
       </c>
       <c r="D36">
-        <v>-0.09985824980256774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08677724876171096</v>
+      </c>
+      <c r="E36">
+        <v>-0.002508871724834317</v>
+      </c>
+      <c r="F36">
+        <v>0.02856643672793488</v>
+      </c>
+      <c r="G36">
+        <v>-0.03383009551781847</v>
+      </c>
+      <c r="H36">
+        <v>0.05253263302391692</v>
+      </c>
+      <c r="I36">
+        <v>-0.014023271374568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.01397128105843807</v>
+        <v>0.01929345462385552</v>
       </c>
       <c r="C38">
-        <v>-0.01399342824203841</v>
+        <v>0.02126341747302155</v>
       </c>
       <c r="D38">
-        <v>-0.08817791570755369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08513695581038888</v>
+      </c>
+      <c r="E38">
+        <v>0.01569138280992587</v>
+      </c>
+      <c r="F38">
+        <v>-0.02041961645125511</v>
+      </c>
+      <c r="G38">
+        <v>-0.03742123633825553</v>
+      </c>
+      <c r="H38">
+        <v>0.03619525741227998</v>
+      </c>
+      <c r="I38">
+        <v>0.002855606384757222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.03102577963424454</v>
+        <v>0.01935545562349172</v>
       </c>
       <c r="C39">
-        <v>-0.06077853682713485</v>
+        <v>0.07714771731775055</v>
       </c>
       <c r="D39">
-        <v>-0.114571743138831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1061049940729888</v>
+      </c>
+      <c r="E39">
+        <v>-0.04288913385775956</v>
+      </c>
+      <c r="F39">
+        <v>-0.0159791890846446</v>
+      </c>
+      <c r="G39">
+        <v>-0.04141065332686159</v>
+      </c>
+      <c r="H39">
+        <v>0.08860812422444136</v>
+      </c>
+      <c r="I39">
+        <v>0.0243248696583924</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01409342595535838</v>
+        <v>0.007895687424835688</v>
       </c>
       <c r="C40">
-        <v>-0.04579431522517782</v>
+        <v>0.04378997070009147</v>
       </c>
       <c r="D40">
-        <v>-0.1227401771660624</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1028491802308556</v>
+      </c>
+      <c r="E40">
+        <v>-0.0120366903555133</v>
+      </c>
+      <c r="F40">
+        <v>0.02501044835070313</v>
+      </c>
+      <c r="G40">
+        <v>-0.2403417655526812</v>
+      </c>
+      <c r="H40">
+        <v>-0.03995664968991946</v>
+      </c>
+      <c r="I40">
+        <v>-0.1134669871738453</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.02512351039919174</v>
+        <v>0.02263032419026129</v>
       </c>
       <c r="C41">
-        <v>-0.003963408765053896</v>
+        <v>0.01411782424211091</v>
       </c>
       <c r="D41">
-        <v>-0.08247802468980528</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05783610687456249</v>
+      </c>
+      <c r="E41">
+        <v>0.01894437653428706</v>
+      </c>
+      <c r="F41">
+        <v>0.01238847787864652</v>
+      </c>
+      <c r="G41">
+        <v>-0.03727925883877452</v>
+      </c>
+      <c r="H41">
+        <v>0.02138611409398741</v>
+      </c>
+      <c r="I41">
+        <v>-0.04688999195015011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.01986553228384705</v>
+        <v>0.01641690545235275</v>
       </c>
       <c r="C43">
-        <v>-0.01218686415905387</v>
+        <v>0.01919415651859135</v>
       </c>
       <c r="D43">
-        <v>-0.1041546808533939</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07390903528870756</v>
+      </c>
+      <c r="E43">
+        <v>0.005130789322628032</v>
+      </c>
+      <c r="F43">
+        <v>0.007621524898181377</v>
+      </c>
+      <c r="G43">
+        <v>-0.04878088747020245</v>
+      </c>
+      <c r="H43">
+        <v>0.04723773631237983</v>
+      </c>
+      <c r="I43">
+        <v>-0.05163131797966154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.005006093352820226</v>
+        <v>0.006363900558542619</v>
       </c>
       <c r="C44">
-        <v>-0.04090589133652259</v>
+        <v>0.04463085549669175</v>
       </c>
       <c r="D44">
-        <v>-0.1050986158527939</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1156708541282837</v>
+      </c>
+      <c r="E44">
+        <v>0.000661034950278528</v>
+      </c>
+      <c r="F44">
+        <v>0.02157931432207395</v>
+      </c>
+      <c r="G44">
+        <v>-0.04664713513937867</v>
+      </c>
+      <c r="H44">
+        <v>0.04317647415069584</v>
+      </c>
+      <c r="I44">
+        <v>0.03163422726147758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01145698956455737</v>
+        <v>0.005375806578567977</v>
       </c>
       <c r="C46">
-        <v>-0.03035878959024327</v>
+        <v>0.03714159253652415</v>
       </c>
       <c r="D46">
-        <v>-0.1148917748682423</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0986806634379173</v>
+      </c>
+      <c r="E46">
+        <v>-0.01638051071604951</v>
+      </c>
+      <c r="F46">
+        <v>0.01926914027670619</v>
+      </c>
+      <c r="G46">
+        <v>-0.06446994465052808</v>
+      </c>
+      <c r="H46">
+        <v>0.09228475334603121</v>
+      </c>
+      <c r="I46">
+        <v>-0.04486159794411852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08068842202456546</v>
+        <v>0.05274811268356309</v>
       </c>
       <c r="C47">
-        <v>-0.09975198472782953</v>
+        <v>0.1139924634328419</v>
       </c>
       <c r="D47">
-        <v>-0.05840911378000543</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03232880663967164</v>
+      </c>
+      <c r="E47">
+        <v>0.01240055241136993</v>
+      </c>
+      <c r="F47">
+        <v>0.002922442924008332</v>
+      </c>
+      <c r="G47">
+        <v>0.03102692122500252</v>
+      </c>
+      <c r="H47">
+        <v>0.01725065432064201</v>
+      </c>
+      <c r="I47">
+        <v>-0.123524379898207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.008524013439492793</v>
+        <v>0.008407578947116218</v>
       </c>
       <c r="C48">
-        <v>-0.01771339748575203</v>
+        <v>0.02602443854829401</v>
       </c>
       <c r="D48">
-        <v>-0.09778950806393888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.09029243176732479</v>
+      </c>
+      <c r="E48">
+        <v>0.01663820845405201</v>
+      </c>
+      <c r="F48">
+        <v>0.0332973106991658</v>
+      </c>
+      <c r="G48">
+        <v>-0.05005255864930517</v>
+      </c>
+      <c r="H48">
+        <v>0.06150342654064934</v>
+      </c>
+      <c r="I48">
+        <v>-0.0202393799141839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0404833514817829</v>
+        <v>0.02433692644867019</v>
       </c>
       <c r="C50">
-        <v>-0.06464161374764089</v>
+        <v>0.07371981269376597</v>
       </c>
       <c r="D50">
-        <v>-0.08001739854073402</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.06008885253507248</v>
+      </c>
+      <c r="E50">
+        <v>0.0001398569184982231</v>
+      </c>
+      <c r="F50">
+        <v>0.0116778590998043</v>
+      </c>
+      <c r="G50">
+        <v>-0.03116822972728819</v>
+      </c>
+      <c r="H50">
+        <v>-0.005332533381951728</v>
+      </c>
+      <c r="I50">
+        <v>-0.1011115095056055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.008120842947167113</v>
+        <v>0.006004128612965481</v>
       </c>
       <c r="C51">
-        <v>-0.01688560853831982</v>
+        <v>0.02354211295187059</v>
       </c>
       <c r="D51">
-        <v>-0.08190003422395378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08225679307719334</v>
+      </c>
+      <c r="E51">
+        <v>-0.02769676171612166</v>
+      </c>
+      <c r="F51">
+        <v>0.03248129263727989</v>
+      </c>
+      <c r="G51">
+        <v>-0.07579977003723883</v>
+      </c>
+      <c r="H51">
+        <v>0.04391201266726287</v>
+      </c>
+      <c r="I51">
+        <v>-0.01602608512710085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.09765523376073144</v>
+        <v>0.0707674131172773</v>
       </c>
       <c r="C53">
-        <v>-0.1232897346490115</v>
+        <v>0.1440136477306799</v>
       </c>
       <c r="D53">
-        <v>-0.01517094795056072</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00294786312323908</v>
+      </c>
+      <c r="E53">
+        <v>0.04836795740254248</v>
+      </c>
+      <c r="F53">
+        <v>0.07144685305430966</v>
+      </c>
+      <c r="G53">
+        <v>-0.02149076221752326</v>
+      </c>
+      <c r="H53">
+        <v>-0.0207619711875222</v>
+      </c>
+      <c r="I53">
+        <v>-0.08793607419948922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0161156805394451</v>
+        <v>0.01253641610661201</v>
       </c>
       <c r="C54">
-        <v>-0.02477115937165589</v>
+        <v>0.03565537851489281</v>
       </c>
       <c r="D54">
-        <v>-0.1176242757285778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09699967935706247</v>
+      </c>
+      <c r="E54">
+        <v>-0.006989848022369942</v>
+      </c>
+      <c r="F54">
+        <v>-0.0004712072507223615</v>
+      </c>
+      <c r="G54">
+        <v>-0.06876056390733172</v>
+      </c>
+      <c r="H54">
+        <v>0.04418391482710789</v>
+      </c>
+      <c r="I54">
+        <v>-0.06236876631661237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.08911437812074434</v>
+        <v>0.06148025967370278</v>
       </c>
       <c r="C55">
-        <v>-0.09888588290763516</v>
+        <v>0.1172815228872548</v>
       </c>
       <c r="D55">
-        <v>-0.001933935030994357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009006458992530773</v>
+      </c>
+      <c r="E55">
+        <v>0.009276206852046599</v>
+      </c>
+      <c r="F55">
+        <v>0.0387846524496117</v>
+      </c>
+      <c r="G55">
+        <v>-0.02472343470443956</v>
+      </c>
+      <c r="H55">
+        <v>-0.03951353859048333</v>
+      </c>
+      <c r="I55">
+        <v>-0.07940816737003134</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1213293431412759</v>
+        <v>0.08384705073143592</v>
       </c>
       <c r="C56">
-        <v>-0.1315684215280363</v>
+        <v>0.1660147687703666</v>
       </c>
       <c r="D56">
-        <v>0.004449255093169202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01372654953971275</v>
+      </c>
+      <c r="E56">
+        <v>0.04021892008035728</v>
+      </c>
+      <c r="F56">
+        <v>0.0374465233196449</v>
+      </c>
+      <c r="G56">
+        <v>-0.02977229114404429</v>
+      </c>
+      <c r="H56">
+        <v>-0.06097832429959602</v>
+      </c>
+      <c r="I56">
+        <v>-0.07888832232309805</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.02124615228868393</v>
+        <v>-0.008730058962838636</v>
       </c>
       <c r="C58">
-        <v>-0.03039851891670736</v>
+        <v>0.04691852630338993</v>
       </c>
       <c r="D58">
-        <v>-0.2216058442969624</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2840885860258218</v>
+      </c>
+      <c r="E58">
+        <v>0.04165281664879782</v>
+      </c>
+      <c r="F58">
+        <v>0.0962709274900371</v>
+      </c>
+      <c r="G58">
+        <v>-0.04917561251616581</v>
+      </c>
+      <c r="H58">
+        <v>-0.152732441063299</v>
+      </c>
+      <c r="I58">
+        <v>0.07576389565527246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1706168694959884</v>
+        <v>0.2228672724405375</v>
       </c>
       <c r="C59">
-        <v>0.1500862021485679</v>
+        <v>-0.1068925946496878</v>
       </c>
       <c r="D59">
-        <v>-0.05297444537655017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06400101837169776</v>
+      </c>
+      <c r="E59">
+        <v>0.03700442037278052</v>
+      </c>
+      <c r="F59">
+        <v>0.007588044891462902</v>
+      </c>
+      <c r="G59">
+        <v>0.006493142834964361</v>
+      </c>
+      <c r="H59">
+        <v>-0.01514412680298286</v>
+      </c>
+      <c r="I59">
+        <v>0.01048390942816621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.204362504423803</v>
+        <v>0.1727413524445308</v>
       </c>
       <c r="C60">
-        <v>-0.09572232420840693</v>
+        <v>0.1488945606789051</v>
       </c>
       <c r="D60">
-        <v>-0.1251167197993064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07423784853631853</v>
+      </c>
+      <c r="E60">
+        <v>-0.2716696780614123</v>
+      </c>
+      <c r="F60">
+        <v>-0.1481596505376742</v>
+      </c>
+      <c r="G60">
+        <v>0.284936047310913</v>
+      </c>
+      <c r="H60">
+        <v>-0.06213308198360747</v>
+      </c>
+      <c r="I60">
+        <v>0.05934078304194918</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03606003228744448</v>
+        <v>0.02284988944878459</v>
       </c>
       <c r="C61">
-        <v>-0.05934525296734965</v>
+        <v>0.07246723416355175</v>
       </c>
       <c r="D61">
-        <v>-0.1139393490609991</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08932221498015562</v>
+      </c>
+      <c r="E61">
+        <v>-0.03033384513421324</v>
+      </c>
+      <c r="F61">
+        <v>-0.01737352671823488</v>
+      </c>
+      <c r="G61">
+        <v>-0.02377545819466627</v>
+      </c>
+      <c r="H61">
+        <v>0.0828192935174146</v>
+      </c>
+      <c r="I61">
+        <v>-0.03614809046708128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0111164758778659</v>
+        <v>0.007989569942926321</v>
       </c>
       <c r="C63">
-        <v>-0.02561053839013662</v>
+        <v>0.03503661142385035</v>
       </c>
       <c r="D63">
-        <v>-0.09522613735380477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07791603740794462</v>
+      </c>
+      <c r="E63">
+        <v>-0.02227888614942191</v>
+      </c>
+      <c r="F63">
+        <v>0.01740239132669096</v>
+      </c>
+      <c r="G63">
+        <v>-0.03513108938970894</v>
+      </c>
+      <c r="H63">
+        <v>0.04202167785238828</v>
+      </c>
+      <c r="I63">
+        <v>-0.02243037940230527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05115769984856009</v>
+        <v>0.02993476506247255</v>
       </c>
       <c r="C64">
-        <v>-0.0799564468137061</v>
+        <v>0.09165007269879143</v>
       </c>
       <c r="D64">
-        <v>-0.05682496396499539</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04769400052509526</v>
+      </c>
+      <c r="E64">
+        <v>-0.02259753901837807</v>
+      </c>
+      <c r="F64">
+        <v>0.03617859606457959</v>
+      </c>
+      <c r="G64">
+        <v>0.009265153735554345</v>
+      </c>
+      <c r="H64">
+        <v>0.106052456633365</v>
+      </c>
+      <c r="I64">
+        <v>-0.03918304474470088</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02522169779351144</v>
+        <v>0.01955352040458806</v>
       </c>
       <c r="C65">
-        <v>-0.01936442275678042</v>
+        <v>0.03693963977269221</v>
       </c>
       <c r="D65">
-        <v>-0.1207434009645834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1094623632966064</v>
+      </c>
+      <c r="E65">
+        <v>-0.03691084714733609</v>
+      </c>
+      <c r="F65">
+        <v>0.01427482450044265</v>
+      </c>
+      <c r="G65">
+        <v>-0.01392868498901662</v>
+      </c>
+      <c r="H65">
+        <v>0.003889117602185671</v>
+      </c>
+      <c r="I65">
+        <v>-0.01310039554664518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.03023764255844008</v>
+        <v>0.01810849225841757</v>
       </c>
       <c r="C66">
-        <v>-0.06652110459285664</v>
+        <v>0.08711489394564154</v>
       </c>
       <c r="D66">
-        <v>-0.1244245705340553</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1322986560060019</v>
+      </c>
+      <c r="E66">
+        <v>-0.03564723776334357</v>
+      </c>
+      <c r="F66">
+        <v>-0.02110642219279787</v>
+      </c>
+      <c r="G66">
+        <v>-0.02047756926477393</v>
+      </c>
+      <c r="H66">
+        <v>0.04870249569879141</v>
+      </c>
+      <c r="I66">
+        <v>0.03192541808282282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.03527687670726071</v>
+        <v>0.03325780135990636</v>
       </c>
       <c r="C67">
-        <v>-0.02363303906558195</v>
+        <v>0.03296896661648883</v>
       </c>
       <c r="D67">
-        <v>-0.04406318871899119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03460266718352138</v>
+      </c>
+      <c r="E67">
+        <v>0.0002082519778543365</v>
+      </c>
+      <c r="F67">
+        <v>-0.03756852898162324</v>
+      </c>
+      <c r="G67">
+        <v>-0.03394384834577099</v>
+      </c>
+      <c r="H67">
+        <v>0.04776081903798043</v>
+      </c>
+      <c r="I67">
+        <v>-0.0009258681304524856</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.210032794445479</v>
+        <v>0.2550299887390503</v>
       </c>
       <c r="C68">
-        <v>0.1702240870376331</v>
+        <v>-0.1140806479692952</v>
       </c>
       <c r="D68">
-        <v>-0.02692876167256497</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03027585896242288</v>
+      </c>
+      <c r="E68">
+        <v>0.001966055852321685</v>
+      </c>
+      <c r="F68">
+        <v>0.025095427752235</v>
+      </c>
+      <c r="G68">
+        <v>-0.02964266283065643</v>
+      </c>
+      <c r="H68">
+        <v>-0.0562835136456069</v>
+      </c>
+      <c r="I68">
+        <v>-0.02790868115823109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.06641774464490569</v>
+        <v>0.04065403913867471</v>
       </c>
       <c r="C69">
-        <v>-0.1110115334854085</v>
+        <v>0.1158786116464644</v>
       </c>
       <c r="D69">
-        <v>-0.08514657253519485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04625906204095826</v>
+      </c>
+      <c r="E69">
+        <v>-0.006359069139645584</v>
+      </c>
+      <c r="F69">
+        <v>-0.004110977379471528</v>
+      </c>
+      <c r="G69">
+        <v>0.01471526580775463</v>
+      </c>
+      <c r="H69">
+        <v>0.02086279975910832</v>
+      </c>
+      <c r="I69">
+        <v>-0.0927749144772113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2038730311240355</v>
+        <v>0.2495456394249387</v>
       </c>
       <c r="C71">
-        <v>0.1810636632846335</v>
+        <v>-0.1273170376022417</v>
       </c>
       <c r="D71">
-        <v>-0.03070700324669031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02873418017355353</v>
+      </c>
+      <c r="E71">
+        <v>0.0118740156481736</v>
+      </c>
+      <c r="F71">
+        <v>0.0335952783542742</v>
+      </c>
+      <c r="G71">
+        <v>-0.04784458579632269</v>
+      </c>
+      <c r="H71">
+        <v>-0.04104647323424086</v>
+      </c>
+      <c r="I71">
+        <v>-0.1295182672727009</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1057849756997329</v>
+        <v>0.07604757913269367</v>
       </c>
       <c r="C72">
-        <v>-0.07402874273149672</v>
+        <v>0.1113706943488026</v>
       </c>
       <c r="D72">
-        <v>-0.08210361017180307</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06999097284733803</v>
+      </c>
+      <c r="E72">
+        <v>-0.08703427169936026</v>
+      </c>
+      <c r="F72">
+        <v>-0.001738193157310889</v>
+      </c>
+      <c r="G72">
+        <v>-0.009440289612547262</v>
+      </c>
+      <c r="H72">
+        <v>0.03894786918052301</v>
+      </c>
+      <c r="I72">
+        <v>-0.01680927397234077</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1863011909169653</v>
+        <v>0.1545129226272829</v>
       </c>
       <c r="C73">
-        <v>-0.05784221087630605</v>
+        <v>0.1214023174591143</v>
       </c>
       <c r="D73">
-        <v>-0.1712409765113476</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06748868328655055</v>
+      </c>
+      <c r="E73">
+        <v>-0.4594820609652623</v>
+      </c>
+      <c r="F73">
+        <v>-0.2247656633766257</v>
+      </c>
+      <c r="G73">
+        <v>0.3997510091447304</v>
+      </c>
+      <c r="H73">
+        <v>0.05707706176688863</v>
+      </c>
+      <c r="I73">
+        <v>-0.0008331222697916941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.09916143426336167</v>
+        <v>0.06679002665151074</v>
       </c>
       <c r="C74">
-        <v>-0.1051126339420343</v>
+        <v>0.1272904745277291</v>
       </c>
       <c r="D74">
-        <v>0.02222343114471133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03127934531306601</v>
+      </c>
+      <c r="E74">
+        <v>0.02725211285932645</v>
+      </c>
+      <c r="F74">
+        <v>0.06689539240323659</v>
+      </c>
+      <c r="G74">
+        <v>0.007091261035154403</v>
+      </c>
+      <c r="H74">
+        <v>-0.03454228632651131</v>
+      </c>
+      <c r="I74">
+        <v>-0.08157796739270495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2459303342568354</v>
+        <v>0.1758354143650345</v>
       </c>
       <c r="C75">
-        <v>-0.1876412362408581</v>
+        <v>0.2433922304173774</v>
       </c>
       <c r="D75">
-        <v>0.1049081674203142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1264543669111096</v>
+      </c>
+      <c r="E75">
+        <v>0.08393943913892324</v>
+      </c>
+      <c r="F75">
+        <v>-0.02102952103454642</v>
+      </c>
+      <c r="G75">
+        <v>-0.02985644303616242</v>
+      </c>
+      <c r="H75">
+        <v>-0.05947985573316912</v>
+      </c>
+      <c r="I75">
+        <v>-0.08492985649520987</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1359331876965997</v>
+        <v>0.09266883406036602</v>
       </c>
       <c r="C76">
-        <v>-0.1371766422272483</v>
+        <v>0.1662230901835947</v>
       </c>
       <c r="D76">
-        <v>-0.003006854971393277</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01937328682679464</v>
+      </c>
+      <c r="E76">
+        <v>0.0382304086536553</v>
+      </c>
+      <c r="F76">
+        <v>0.01952786715017282</v>
+      </c>
+      <c r="G76">
+        <v>-0.04150209382899991</v>
+      </c>
+      <c r="H76">
+        <v>-0.02119635609690752</v>
+      </c>
+      <c r="I76">
+        <v>-0.07398140616061817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02844636734704735</v>
+        <v>0.03766244427055775</v>
       </c>
       <c r="C77">
-        <v>-0.07760934765787256</v>
+        <v>0.08672668280766525</v>
       </c>
       <c r="D77">
-        <v>-0.07549191169794051</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2290250726736258</v>
+      </c>
+      <c r="E77">
+        <v>0.6855183230038597</v>
+      </c>
+      <c r="F77">
+        <v>-0.3861316655859599</v>
+      </c>
+      <c r="G77">
+        <v>0.405669569749061</v>
+      </c>
+      <c r="H77">
+        <v>-0.1706534270099014</v>
+      </c>
+      <c r="I77">
+        <v>-0.1084637564723288</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03057747151082595</v>
+        <v>0.02672353480187461</v>
       </c>
       <c r="C78">
-        <v>-0.06346273132788671</v>
+        <v>0.07798856889287362</v>
       </c>
       <c r="D78">
-        <v>-0.1535844015418983</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1427026148773289</v>
+      </c>
+      <c r="E78">
+        <v>-0.04320336514507182</v>
+      </c>
+      <c r="F78">
+        <v>0.03136257159110361</v>
+      </c>
+      <c r="G78">
+        <v>0.00454252784661733</v>
+      </c>
+      <c r="H78">
+        <v>0.02629260513461954</v>
+      </c>
+      <c r="I78">
+        <v>0.05863822041288881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.06400146490200129</v>
+        <v>0.04533096791598464</v>
       </c>
       <c r="C79">
-        <v>-0.1315450387581759</v>
+        <v>0.145895739331186</v>
       </c>
       <c r="D79">
-        <v>0.1039994672254714</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04667733435885887</v>
+      </c>
+      <c r="E79">
+        <v>0.1533584325623601</v>
+      </c>
+      <c r="F79">
+        <v>0.7707613465581437</v>
+      </c>
+      <c r="G79">
+        <v>0.4582972345996135</v>
+      </c>
+      <c r="H79">
+        <v>0.1097979250860833</v>
+      </c>
+      <c r="I79">
+        <v>0.1883888498899081</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01603450916201075</v>
+        <v>0.009799637064275481</v>
       </c>
       <c r="C80">
-        <v>-0.05484391096337363</v>
+        <v>0.05642095587381191</v>
       </c>
       <c r="D80">
-        <v>-0.04222754440879493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03872775031837883</v>
+      </c>
+      <c r="E80">
+        <v>-0.01304911770874764</v>
+      </c>
+      <c r="F80">
+        <v>0.01231259273957442</v>
+      </c>
+      <c r="G80">
+        <v>-0.0684839732276856</v>
+      </c>
+      <c r="H80">
+        <v>-0.005801514814894395</v>
+      </c>
+      <c r="I80">
+        <v>-0.008625761676778356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1230275342110936</v>
+        <v>0.07870924602008816</v>
       </c>
       <c r="C81">
-        <v>-0.1417597550432408</v>
+        <v>0.1614671206140436</v>
       </c>
       <c r="D81">
-        <v>0.07479080475979503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08336673501146812</v>
+      </c>
+      <c r="E81">
+        <v>0.07688738941148397</v>
+      </c>
+      <c r="F81">
+        <v>0.05184636954575352</v>
+      </c>
+      <c r="G81">
+        <v>-0.07282814244198646</v>
+      </c>
+      <c r="H81">
+        <v>0.004068839295560908</v>
+      </c>
+      <c r="I81">
+        <v>-0.116686494527623</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.23457767110629</v>
+        <v>0.144740185009075</v>
       </c>
       <c r="C82">
-        <v>-0.2849654661906207</v>
+        <v>0.3022744792285021</v>
       </c>
       <c r="D82">
-        <v>0.2314619662867286</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2284961238720371</v>
+      </c>
+      <c r="E82">
+        <v>0.04724731608086242</v>
+      </c>
+      <c r="F82">
+        <v>-0.0822201401537145</v>
+      </c>
+      <c r="G82">
+        <v>-0.07240963864702729</v>
+      </c>
+      <c r="H82">
+        <v>0.001377491147123353</v>
+      </c>
+      <c r="I82">
+        <v>-0.09410918716013206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01394724250742777</v>
+        <v>0.001290777400813738</v>
       </c>
       <c r="C83">
-        <v>-0.06845610191040329</v>
+        <v>0.06133939178199343</v>
       </c>
       <c r="D83">
-        <v>-0.0508740199036972</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05875666296706687</v>
+      </c>
+      <c r="E83">
+        <v>0.0930500090716488</v>
+      </c>
+      <c r="F83">
+        <v>-0.02617315841720844</v>
+      </c>
+      <c r="G83">
+        <v>-0.05469061987197755</v>
+      </c>
+      <c r="H83">
+        <v>0.05831284100749743</v>
+      </c>
+      <c r="I83">
+        <v>0.06441968401357839</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>7.710379845664584e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01072217685863029</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0315169406260828</v>
+      </c>
+      <c r="E84">
+        <v>0.005898993174714276</v>
+      </c>
+      <c r="F84">
+        <v>0.01700059214527444</v>
+      </c>
+      <c r="G84">
+        <v>-0.03263530783756321</v>
+      </c>
+      <c r="H84">
+        <v>-0.01814289996009735</v>
+      </c>
+      <c r="I84">
+        <v>0.02399940297095654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1534799484131661</v>
+        <v>0.1025332120825023</v>
       </c>
       <c r="C85">
-        <v>-0.1409676633337702</v>
+        <v>0.1824137152658621</v>
       </c>
       <c r="D85">
-        <v>0.06241559222562284</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09320091960638029</v>
+      </c>
+      <c r="E85">
+        <v>0.003601233109094786</v>
+      </c>
+      <c r="F85">
+        <v>0.08155038776272805</v>
+      </c>
+      <c r="G85">
+        <v>-0.008784157083571408</v>
+      </c>
+      <c r="H85">
+        <v>-0.03073897025539061</v>
+      </c>
+      <c r="I85">
+        <v>-0.077517570703466</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01378953453225286</v>
+        <v>0.01315681982801106</v>
       </c>
       <c r="C86">
-        <v>-0.02994833344946118</v>
+        <v>0.03178443346573289</v>
       </c>
       <c r="D86">
-        <v>-0.09979193816046678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.109798808640216</v>
+      </c>
+      <c r="E86">
+        <v>0.04503637717221091</v>
+      </c>
+      <c r="F86">
+        <v>-0.01769553707277255</v>
+      </c>
+      <c r="G86">
+        <v>-0.01957584487960429</v>
+      </c>
+      <c r="H86">
+        <v>-0.002613951734655194</v>
+      </c>
+      <c r="I86">
+        <v>-0.08744580352628749</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02459499612195997</v>
+        <v>0.02483138000168836</v>
       </c>
       <c r="C87">
-        <v>-0.02647282654353227</v>
+        <v>0.04499758930061303</v>
       </c>
       <c r="D87">
-        <v>-0.1336647175948495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.14999849928425</v>
+      </c>
+      <c r="E87">
+        <v>0.0152783494426466</v>
+      </c>
+      <c r="F87">
+        <v>0.03183863268505087</v>
+      </c>
+      <c r="G87">
+        <v>-0.06263905930835595</v>
+      </c>
+      <c r="H87">
+        <v>0.01664260878283198</v>
+      </c>
+      <c r="I87">
+        <v>0.07127325482711012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06169235149222778</v>
+        <v>0.04448267448932358</v>
       </c>
       <c r="C88">
-        <v>-0.0490568578560984</v>
+        <v>0.06551414643610876</v>
       </c>
       <c r="D88">
-        <v>-0.04188616353523596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01367955326963011</v>
+      </c>
+      <c r="E88">
+        <v>-0.01851458869532577</v>
+      </c>
+      <c r="F88">
+        <v>0.02534922021136705</v>
+      </c>
+      <c r="G88">
+        <v>-0.0006066886497739957</v>
+      </c>
+      <c r="H88">
+        <v>0.01549236382841897</v>
+      </c>
+      <c r="I88">
+        <v>-0.0510760495367458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3141675273381807</v>
+        <v>0.3806460617035124</v>
       </c>
       <c r="C89">
-        <v>0.3382035682228567</v>
+        <v>-0.2353192056337506</v>
       </c>
       <c r="D89">
-        <v>-0.01354601825997031</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02035972754552277</v>
+      </c>
+      <c r="E89">
+        <v>0.0446132926629386</v>
+      </c>
+      <c r="F89">
+        <v>0.03163762807626634</v>
+      </c>
+      <c r="G89">
+        <v>-0.1030081405563259</v>
+      </c>
+      <c r="H89">
+        <v>0.1737302128156862</v>
+      </c>
+      <c r="I89">
+        <v>0.3332913116733408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.255268321971149</v>
+        <v>0.3007804216740168</v>
       </c>
       <c r="C90">
-        <v>0.2442084791508704</v>
+        <v>-0.1598579399077814</v>
       </c>
       <c r="D90">
-        <v>-0.03489964975324077</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03958491282548441</v>
+      </c>
+      <c r="E90">
+        <v>0.008408630543706285</v>
+      </c>
+      <c r="F90">
+        <v>-0.01521558315480357</v>
+      </c>
+      <c r="G90">
+        <v>-0.0441075994328814</v>
+      </c>
+      <c r="H90">
+        <v>-0.05237513989037887</v>
+      </c>
+      <c r="I90">
+        <v>-0.046825884164044</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1570204306155959</v>
+        <v>0.1044823311421253</v>
       </c>
       <c r="C91">
-        <v>-0.1846153616985705</v>
+        <v>0.2037728921512441</v>
       </c>
       <c r="D91">
-        <v>0.09576047129111247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1015421038159135</v>
+      </c>
+      <c r="E91">
+        <v>0.07954422217375517</v>
+      </c>
+      <c r="F91">
+        <v>0.08011451194434775</v>
+      </c>
+      <c r="G91">
+        <v>-0.00168374714772695</v>
+      </c>
+      <c r="H91">
+        <v>-0.02290298978292192</v>
+      </c>
+      <c r="I91">
+        <v>-0.09737409033815547</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2291587231531822</v>
+        <v>0.3021222591456052</v>
       </c>
       <c r="C92">
-        <v>0.2462886797473108</v>
+        <v>-0.1874019388625209</v>
       </c>
       <c r="D92">
-        <v>-0.006766344727193644</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02474896852485713</v>
+      </c>
+      <c r="E92">
+        <v>0.09679459080244221</v>
+      </c>
+      <c r="F92">
+        <v>0.03929188809755621</v>
+      </c>
+      <c r="G92">
+        <v>-0.08076631312768601</v>
+      </c>
+      <c r="H92">
+        <v>-0.0002780934047524554</v>
+      </c>
+      <c r="I92">
+        <v>-0.05654924418425311</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.278941557595034</v>
+        <v>0.320623995186425</v>
       </c>
       <c r="C93">
-        <v>0.2644500567711444</v>
+        <v>-0.1738023025494815</v>
       </c>
       <c r="D93">
-        <v>-0.02151484449867492</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001246782272184099</v>
+      </c>
+      <c r="E93">
+        <v>-0.03676092174777475</v>
+      </c>
+      <c r="F93">
+        <v>0.02044941579868007</v>
+      </c>
+      <c r="G93">
+        <v>0.04286177794101524</v>
+      </c>
+      <c r="H93">
+        <v>-0.02259900302719883</v>
+      </c>
+      <c r="I93">
+        <v>-0.1140253004294226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3156975724266603</v>
+        <v>0.2177152524432651</v>
       </c>
       <c r="C94">
-        <v>-0.2742159160605363</v>
+        <v>0.3441089966936752</v>
       </c>
       <c r="D94">
-        <v>0.3429412002236418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.354532107107873</v>
+      </c>
+      <c r="E94">
+        <v>0.04970933638375633</v>
+      </c>
+      <c r="F94">
+        <v>-0.1114082018049364</v>
+      </c>
+      <c r="G94">
+        <v>-0.2927835243670178</v>
+      </c>
+      <c r="H94">
+        <v>-0.09726850583062942</v>
+      </c>
+      <c r="I94">
+        <v>0.407388760625909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.05449084927220088</v>
+        <v>0.04644340221423589</v>
       </c>
       <c r="C95">
-        <v>-0.04462530925662227</v>
+        <v>0.06739363869200725</v>
       </c>
       <c r="D95">
-        <v>-0.09455715218364398</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.100585171226142</v>
+      </c>
+      <c r="E95">
+        <v>0.2000053013500568</v>
+      </c>
+      <c r="F95">
+        <v>-0.2238152039847287</v>
+      </c>
+      <c r="G95">
+        <v>0.0508600929855276</v>
+      </c>
+      <c r="H95">
+        <v>0.5456982390318812</v>
+      </c>
+      <c r="I95">
+        <v>0.4626294891134048</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2.755555678384648e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001246662140251344</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0002175483412608205</v>
+      </c>
+      <c r="E97">
+        <v>-5.886645510178201e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.00129387909092009</v>
+      </c>
+      <c r="G97">
+        <v>0.00107547855107356</v>
+      </c>
+      <c r="H97">
+        <v>0.0006576774345478927</v>
+      </c>
+      <c r="I97">
+        <v>-0.0004100684750585454</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1580265329930422</v>
+        <v>0.1346366823218971</v>
       </c>
       <c r="C98">
-        <v>-0.0691372479958801</v>
+        <v>0.1183959367598295</v>
       </c>
       <c r="D98">
-        <v>-0.1026133749219724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05384084975143556</v>
+      </c>
+      <c r="E98">
+        <v>-0.2913715857949249</v>
+      </c>
+      <c r="F98">
+        <v>-0.1354151096882352</v>
+      </c>
+      <c r="G98">
+        <v>0.2377565926154691</v>
+      </c>
+      <c r="H98">
+        <v>-0.00841255231822842</v>
+      </c>
+      <c r="I98">
+        <v>0.006829774873277447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-9.215337207302106e-05</v>
+        <v>0.001496232942688206</v>
       </c>
       <c r="C101">
-        <v>-0.02323346003106369</v>
+        <v>0.02847873303271731</v>
       </c>
       <c r="D101">
-        <v>-0.1064741218266664</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1052918971276676</v>
+      </c>
+      <c r="E101">
+        <v>-0.03075396832630913</v>
+      </c>
+      <c r="F101">
+        <v>0.02735895124624203</v>
+      </c>
+      <c r="G101">
+        <v>-0.06725182037734577</v>
+      </c>
+      <c r="H101">
+        <v>0.08135688396696228</v>
+      </c>
+      <c r="I101">
+        <v>-0.03781161593346564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1101002503189988</v>
+        <v>0.0641411968835931</v>
       </c>
       <c r="C102">
-        <v>-0.1467187081463839</v>
+        <v>0.1479752998990607</v>
       </c>
       <c r="D102">
-        <v>0.07916924283012493</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09103953375510676</v>
+      </c>
+      <c r="E102">
+        <v>0.03303428882514708</v>
+      </c>
+      <c r="F102">
+        <v>-0.05768867448890599</v>
+      </c>
+      <c r="G102">
+        <v>-0.003773629631963021</v>
+      </c>
+      <c r="H102">
+        <v>0.03749700425672926</v>
+      </c>
+      <c r="I102">
+        <v>-0.0421370599057366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
